--- a/ciri_database_dataset.xlsx
+++ b/ciri_database_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Matlab_July\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BDF7D-C2F3-43EA-85A8-201DEB0B5F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C9C2C5-5CE1-4D94-891F-BCE851F46266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DB6A681C-649D-46F0-B205-D10D7BA9B337}"/>
   </bookViews>
@@ -443,13 +443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B3663C-C354-47FE-8035-0A0F9FDA46BA}">
   <dimension ref="A1:P271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -502,34 +503,34 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.53504267451550214</v>
+        <v>0.64161503255735186</v>
       </c>
       <c r="B2" s="1">
-        <v>0.27298894098349102</v>
+        <v>0.2076746261274823</v>
       </c>
       <c r="C2" s="1">
-        <v>0.72813459967412919</v>
+        <v>0.74978363813510862</v>
       </c>
       <c r="D2" s="1">
-        <v>3.232495583748194E-2</v>
+        <v>1.4113939296611533E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.99740070625420374</v>
+        <v>0.99415196287593333</v>
       </c>
       <c r="F2" s="1">
-        <v>0.27536090152374193</v>
+        <v>0.36729087803837568</v>
       </c>
       <c r="G2" s="1">
-        <v>0.9893078194422138</v>
+        <v>0.99299120764413029</v>
       </c>
       <c r="H2" s="1">
-        <v>348597</v>
+        <v>424939</v>
       </c>
       <c r="I2" s="1">
         <v>2974.9159999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.89196000307226264</v>
+        <v>0.88627458895129574</v>
       </c>
       <c r="K2" s="1">
         <v>1040</v>
@@ -550,34 +551,34 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.54540327760877594</v>
+        <v>0.52538064850913957</v>
       </c>
       <c r="B3" s="1">
-        <v>0.26021176471850144</v>
+        <v>0.34651350395008346</v>
       </c>
       <c r="C3" s="1">
-        <v>0.7619118668292888</v>
+        <v>0.63912803230235693</v>
       </c>
       <c r="D3" s="1">
-        <v>1.7620844708527383E-2</v>
+        <v>5.2772201702264342E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.99623496250861676</v>
+        <v>0.99644251206968026</v>
       </c>
       <c r="F3" s="1">
-        <v>0.38667894343072662</v>
+        <v>0.27362581926348445</v>
       </c>
       <c r="G3" s="1">
-        <v>0.99191939671323803</v>
+        <v>0.97982495583748208</v>
       </c>
       <c r="H3" s="1">
-        <v>409983</v>
+        <v>286122</v>
       </c>
       <c r="I3" s="1">
         <v>2974.9159999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>0.88761738902876419</v>
+        <v>0.88067406327015574</v>
       </c>
       <c r="K3" s="1">
         <v>1040</v>
@@ -598,46 +599,46 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.39834909126081325</v>
+        <v>0.52424768831845214</v>
       </c>
       <c r="B4" s="1">
-        <v>0.42930267904683195</v>
+        <v>0.34794136886284821</v>
       </c>
       <c r="C4" s="1">
-        <v>0.45101175755565326</v>
+        <v>0.63872672354162863</v>
       </c>
       <c r="D4" s="1">
-        <v>3.1839285273879692E-2</v>
+        <v>5.1742412076441299E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.99720967611723366</v>
+        <v>0.99651636983977787</v>
       </c>
       <c r="F4" s="1">
-        <v>0.30243465527730556</v>
+        <v>0.27407737539344723</v>
       </c>
       <c r="G4" s="1">
-        <v>0.98408035736306032</v>
+        <v>0.98008160028906366</v>
       </c>
       <c r="H4" s="1">
-        <v>1431435</v>
+        <v>285869</v>
       </c>
       <c r="I4" s="1">
-        <v>12217.315000000001</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.98649789102025709</v>
+        <v>0.87907882663711778</v>
       </c>
       <c r="K4" s="1">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L4" s="1">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M4" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N4" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -646,46 +647,46 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.38988734003802045</v>
+        <v>0.42252167991680722</v>
       </c>
       <c r="B5" s="1">
-        <v>0.45716271311131673</v>
+        <v>0.33252814914660872</v>
       </c>
       <c r="C5" s="1">
-        <v>0.44845998754890076</v>
+        <v>0.58836726212961687</v>
       </c>
       <c r="D5" s="1">
-        <v>2.9599908747872838E-2</v>
+        <v>4.4871125742733248E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.99746061087991333</v>
+        <v>0.99627233192551834</v>
       </c>
       <c r="F5" s="1">
-        <v>0.29729075100559216</v>
+        <v>0.31150390079945778</v>
       </c>
       <c r="G5" s="1">
-        <v>0.98520004562606356</v>
+        <v>0.98381647797227145</v>
       </c>
       <c r="H5" s="1">
-        <v>1566427</v>
+        <v>211589</v>
       </c>
       <c r="I5" s="1">
-        <v>12182.194999999998</v>
+        <v>5061.6009999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>0.98359426092977631</v>
+        <v>0.86236385479720923</v>
       </c>
       <c r="K5" s="1">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L5" s="1">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M5" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N5" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>15</v>
@@ -694,46 +695,46 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.36042004910595277</v>
+        <v>0.17230374763246584</v>
       </c>
       <c r="B6" s="1">
-        <v>0.52791624173425722</v>
+        <v>0.21529478850778164</v>
       </c>
       <c r="C6" s="1">
-        <v>0.40294724890604894</v>
+        <v>0.71051491798673982</v>
       </c>
       <c r="D6" s="1">
-        <v>3.3973074456803212E-2</v>
+        <v>3.9160109201862844E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.99676055727371515</v>
+        <v>0.99498134871809962</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3673936465823931</v>
+        <v>0.36628061215489799</v>
       </c>
       <c r="G6" s="1">
-        <v>0.98301407934002505</v>
+        <v>0.98463110914833263</v>
       </c>
       <c r="H6" s="1">
-        <v>627593</v>
+        <v>220417</v>
       </c>
       <c r="I6" s="1">
-        <v>4983.5800000000008</v>
+        <v>5103.7949999999992</v>
       </c>
       <c r="J6" s="1">
-        <v>0.92039948742179256</v>
+        <v>0.86339244791889724</v>
       </c>
       <c r="K6" s="1">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L6" s="1">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M6" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N6" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>15</v>
@@ -742,46 +743,46 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.34357009131836874</v>
+        <v>0.17383785775947683</v>
       </c>
       <c r="B7" s="1">
-        <v>0.58757931225957138</v>
+        <v>0.21286190884499617</v>
       </c>
       <c r="C7" s="1">
-        <v>0.36227351210617187</v>
+        <v>0.70787818156140403</v>
       </c>
       <c r="D7" s="1">
-        <v>3.4719122253187656E-2</v>
+        <v>3.3182110165408708E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.99542958633075507</v>
+        <v>0.99572533472684022</v>
       </c>
       <c r="F7" s="1">
-        <v>0.42879705522823314</v>
+        <v>0.36493959106431528</v>
       </c>
       <c r="G7" s="1">
-        <v>0.98264115820323727</v>
+        <v>0.98578385123922696</v>
       </c>
       <c r="H7" s="1">
-        <v>511687</v>
+        <v>217658</v>
       </c>
       <c r="I7" s="1">
-        <v>4344.317</v>
+        <v>5090.9210000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.90562880407728907</v>
+        <v>0.87269434492669595</v>
       </c>
       <c r="K7" s="1">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L7" s="1">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M7" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N7" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>15</v>
@@ -790,46 +791,46 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.34157732329045609</v>
+        <v>0.14566811158500687</v>
       </c>
       <c r="B8" s="1">
-        <v>0.60113720089490252</v>
+        <v>0.27332778378256373</v>
       </c>
       <c r="C8" s="1">
-        <v>0.37234873744096181</v>
+        <v>0.76242226778569522</v>
       </c>
       <c r="D8" s="1">
-        <v>3.1849844008188022E-2</v>
+        <v>4.3985867994218719E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.99545289492266698</v>
+        <v>0.99259188735115744</v>
       </c>
       <c r="F8" s="1">
-        <v>0.41143138497832182</v>
+        <v>0.3021705130299448</v>
       </c>
       <c r="G8" s="1">
-        <v>0.98407507799590599</v>
+        <v>0.9807351051870884</v>
       </c>
       <c r="H8" s="1">
-        <v>458855</v>
+        <v>221962</v>
       </c>
       <c r="I8" s="1">
-        <v>3492.5609999999997</v>
+        <v>5235.6610000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.87688535109072963</v>
+        <v>0.86394719612533166</v>
       </c>
       <c r="K8" s="1">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L8" s="1">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M8" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N8" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>15</v>
@@ -838,46 +839,46 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.538389343679606</v>
+        <v>0.6481926085200338</v>
       </c>
       <c r="B9" s="1">
-        <v>0.2605091848870757</v>
+        <v>0.20307403426778897</v>
       </c>
       <c r="C9" s="1">
-        <v>0.66877099072166446</v>
+        <v>0.75462166918087625</v>
       </c>
       <c r="D9" s="1">
-        <v>1.8749449105347083E-2</v>
+        <v>1.3724506182752529E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.99535371393323768</v>
+        <v>0.99413729885498081</v>
       </c>
       <c r="F9" s="1">
-        <v>0.31007826648440701</v>
+        <v>0.37019023284956343</v>
       </c>
       <c r="G9" s="1">
-        <v>0.99062661094951554</v>
+        <v>0.99318860071730641</v>
       </c>
       <c r="H9" s="1">
-        <v>5625848</v>
+        <v>427788</v>
       </c>
       <c r="I9" s="1">
-        <v>20269.144</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.7277596927333112</v>
+        <v>0.88650163986105868</v>
       </c>
       <c r="K9" s="1">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L9" s="1">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M9" s="1">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N9" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>15</v>
@@ -886,46 +887,46 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.53431609181849749</v>
+        <v>0.64946010143287558</v>
       </c>
       <c r="B10" s="1">
-        <v>0.26870135761111746</v>
+        <v>0.20002604048365985</v>
       </c>
       <c r="C10" s="1">
-        <v>0.67191494759802195</v>
+        <v>0.7580196314106793</v>
       </c>
       <c r="D10" s="1">
-        <v>1.9615856150388231E-2</v>
+        <v>1.2869359242010601E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.99513925348399057</v>
+        <v>0.99452097887271385</v>
       </c>
       <c r="F10" s="1">
-        <v>0.31421322509377964</v>
+        <v>0.37207289793680182</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99019524374250467</v>
+        <v>0.99361885070392364</v>
       </c>
       <c r="H10" s="1">
-        <v>5724681</v>
+        <v>428875</v>
       </c>
       <c r="I10" s="1">
-        <v>20477.116999999998</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J10" s="1">
-        <v>0.71541011860070081</v>
+        <v>0.88642103041963827</v>
       </c>
       <c r="K10" s="1">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L10" s="1">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M10" s="1">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N10" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>15</v>
@@ -934,46 +935,46 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.52208456667684533</v>
+        <v>0.4567849121267521</v>
       </c>
       <c r="B11" s="1">
-        <v>0.28215287441958981</v>
+        <v>0.44854039530907736</v>
       </c>
       <c r="C11" s="1">
-        <v>0.65733992388039209</v>
+        <v>0.75011144105044614</v>
       </c>
       <c r="D11" s="1">
-        <v>1.8925484987619895E-2</v>
+        <v>2.0455275413521764E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.99571943512059202</v>
+        <v>0.99437034400616675</v>
       </c>
       <c r="F11" s="1">
-        <v>0.31224264568298093</v>
+        <v>0.34440273870925142</v>
       </c>
       <c r="G11" s="1">
-        <v>0.99053825913283178</v>
+        <v>0.98984412638509722</v>
       </c>
       <c r="H11" s="1">
-        <v>5733090</v>
+        <v>263336</v>
       </c>
       <c r="I11" s="1">
-        <v>19326.222999999998</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J11" s="1">
-        <v>0.70133497111216647</v>
+        <v>0.87336247217739194</v>
       </c>
       <c r="K11" s="1">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L11" s="1">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M11" s="1">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N11" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>15</v>
@@ -982,46 +983,46 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.512620886929819</v>
+        <v>0.44390132082367206</v>
       </c>
       <c r="B12" s="1">
-        <v>0.29509704200092418</v>
+        <v>0.46493249836075662</v>
       </c>
       <c r="C12" s="1">
-        <v>0.64948672439055921</v>
+        <v>0.74992467948668862</v>
       </c>
       <c r="D12" s="1">
-        <v>1.8387361074384802E-2</v>
+        <v>2.2856110486590652E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.99609196724076321</v>
+        <v>0.99376701994754346</v>
       </c>
       <c r="F12" s="1">
-        <v>0.31390285537201629</v>
+        <v>0.311938689387384</v>
       </c>
       <c r="G12" s="1">
-        <v>0.99080682027612843</v>
+        <v>0.98864153417911249</v>
       </c>
       <c r="H12" s="1">
-        <v>5751071</v>
+        <v>252212</v>
       </c>
       <c r="I12" s="1">
-        <v>21448.784</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.68362746098559413</v>
+        <v>0.88111472368805011</v>
       </c>
       <c r="K12" s="1">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L12" s="1">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M12" s="1">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N12" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>15</v>
@@ -1030,46 +1031,46 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.45712564294410263</v>
+        <v>0.51921835052810994</v>
       </c>
       <c r="B13" s="1">
-        <v>0.31157361973770648</v>
+        <v>0.26428628477029958</v>
       </c>
       <c r="C13" s="1">
-        <v>0.57455089772760537</v>
+        <v>0.71024670532579171</v>
       </c>
       <c r="D13" s="1">
-        <v>3.9390475867511779E-2</v>
+        <v>2.251865381883926E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.99443952372717082</v>
+        <v>0.99510325332781036</v>
       </c>
       <c r="F13" s="1">
-        <v>0.18280454960452341</v>
+        <v>0.31179645494274344</v>
       </c>
       <c r="G13" s="1">
-        <v>0.98030774214697347</v>
+        <v>0.98878138118126901</v>
       </c>
       <c r="H13" s="1">
-        <v>8685139</v>
+        <v>528318</v>
       </c>
       <c r="I13" s="1">
-        <v>20548.884999999998</v>
+        <v>3524.9399999999996</v>
       </c>
       <c r="J13" s="1">
-        <v>0.63018065411175972</v>
+        <v>0.86938890335297536</v>
       </c>
       <c r="K13" s="1">
-        <v>4160</v>
+        <v>589</v>
       </c>
       <c r="L13" s="1">
-        <v>3120</v>
+        <v>1280</v>
       </c>
       <c r="M13" s="1">
-        <v>5200</v>
+        <v>1409.0141943926612</v>
       </c>
       <c r="N13" s="1">
-        <v>1.3333333333333333</v>
+        <v>0.46015624999999999</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>15</v>
@@ -1078,46 +1079,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.57661959375420202</v>
+        <v>0.45913547702896362</v>
       </c>
       <c r="B14" s="1">
-        <v>0.31255435964652367</v>
+        <v>0.47835703145926184</v>
       </c>
       <c r="C14" s="1">
-        <v>0.86648063247014395</v>
+        <v>0.65913117458441117</v>
       </c>
       <c r="D14" s="1">
-        <v>1.8793845663265304E-2</v>
+        <v>3.0550208533846653E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.99628398257968775</v>
+        <v>0.99607229186579971</v>
       </c>
       <c r="F14" s="1">
-        <v>0.32534711824793394</v>
+        <v>0.20939024474518736</v>
       </c>
       <c r="G14" s="1">
-        <v>0.9911892139668369</v>
+        <v>0.98483735028339203</v>
       </c>
       <c r="H14" s="1">
-        <v>573790</v>
+        <v>237922</v>
       </c>
       <c r="I14" s="1">
-        <v>3584.5439999999999</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J14" s="1">
-        <v>0.86289201408779992</v>
+        <v>0.86578361034502493</v>
       </c>
       <c r="K14" s="1">
-        <v>1280</v>
+        <v>480</v>
       </c>
       <c r="L14" s="1">
-        <v>589</v>
+        <v>1040</v>
       </c>
       <c r="M14" s="1">
-        <v>1409.0141943926612</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N14" s="1">
-        <v>2.1731748726655349</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>15</v>
@@ -1126,46 +1127,46 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.43720354123416044</v>
+        <v>0.36799364743184698</v>
       </c>
       <c r="B15" s="1">
-        <v>0.34516842596456881</v>
+        <v>0.59110308904807474</v>
       </c>
       <c r="C15" s="1">
-        <v>0.54937969257816921</v>
+        <v>0.68729648221529205</v>
       </c>
       <c r="D15" s="1">
-        <v>3.7926896564480721E-2</v>
+        <v>2.3343760025665707E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.99491581471834656</v>
+        <v>0.99645918984911408</v>
       </c>
       <c r="F15" s="1">
-        <v>0.18616407152705189</v>
+        <v>0.30064341624246871</v>
       </c>
       <c r="G15" s="1">
-        <v>0.98103768209320874</v>
+        <v>0.98843890359319875</v>
       </c>
       <c r="H15" s="1">
-        <v>8090241</v>
+        <v>180384</v>
       </c>
       <c r="I15" s="1">
-        <v>18374.919999999998</v>
+        <v>5065.3649999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.61276851258098508</v>
+        <v>0.83310360784535764</v>
       </c>
       <c r="K15" s="1">
-        <v>4160</v>
+        <v>480</v>
       </c>
       <c r="L15" s="1">
-        <v>3120</v>
+        <v>1040</v>
       </c>
       <c r="M15" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N15" s="1">
-        <v>1.3333333333333333</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>15</v>
@@ -1174,46 +1175,46 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.42121854944210468</v>
+        <v>0.36439673621290519</v>
       </c>
       <c r="B16" s="1">
-        <v>0.372261748433793</v>
+        <v>0.59892392092072788</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5261625394014886</v>
+        <v>0.68342884301209084</v>
       </c>
       <c r="D16" s="1">
-        <v>3.5523898192221376E-2</v>
+        <v>2.4081649021495028E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.99544712282005665</v>
+        <v>0.9962690817513129</v>
       </c>
       <c r="F16" s="1">
-        <v>0.19001867858531327</v>
+        <v>0.29812004658296748</v>
       </c>
       <c r="G16" s="1">
-        <v>0.98223835918810276</v>
+        <v>0.98805826248529582</v>
       </c>
       <c r="H16" s="1">
-        <v>7528582</v>
+        <v>175166</v>
       </c>
       <c r="I16" s="1">
-        <v>16074.028</v>
+        <v>5087.8600000000006</v>
       </c>
       <c r="J16" s="1">
-        <v>0.60658683932531554</v>
+        <v>0.83827731888851642</v>
       </c>
       <c r="K16" s="1">
-        <v>4160</v>
+        <v>480</v>
       </c>
       <c r="L16" s="1">
-        <v>3120</v>
+        <v>1040</v>
       </c>
       <c r="M16" s="1">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N16" s="1">
-        <v>1.3333333333333333</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>15</v>
@@ -1222,46 +1223,46 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.38621208634711918</v>
+        <v>0.42994254721987291</v>
       </c>
       <c r="B17" s="1">
-        <v>0.42937352888946162</v>
+        <v>0.35106276819289034</v>
       </c>
       <c r="C17" s="1">
-        <v>0.50389228345809034</v>
+        <v>0.7313040079211599</v>
       </c>
       <c r="D17" s="1">
-        <v>3.0060408291612203E-2</v>
+        <v>2.5953188602442331E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.99632408834812081</v>
+        <v>0.99624038152416983</v>
       </c>
       <c r="F17" s="1">
-        <v>0.18651568638102239</v>
+        <v>0.31760278520014029</v>
       </c>
       <c r="G17" s="1">
-        <v>0.98497226212790101</v>
+        <v>0.98752840909090911</v>
       </c>
       <c r="H17" s="1">
-        <v>2197468</v>
+        <v>612225</v>
       </c>
       <c r="I17" s="1">
-        <v>18758.041999999998</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.97976961982581379</v>
+        <v>0.88744865888964941</v>
       </c>
       <c r="K17" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L17" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M17" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N17" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>15</v>
@@ -1270,46 +1271,46 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.37128958162184528</v>
+        <v>0.51512051690567051</v>
       </c>
       <c r="B18" s="1">
-        <v>0.4605958555532369</v>
+        <v>0.33017464202578312</v>
       </c>
       <c r="C18" s="1">
-        <v>0.50317284426380959</v>
+        <v>0.77751789182559961</v>
       </c>
       <c r="D18" s="1">
-        <v>2.799205243297901E-2</v>
+        <v>2.2580672554347821E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.99674661065558856</v>
+        <v>0.99751563257743425</v>
       </c>
       <c r="F18" s="1">
-        <v>0.19598779955784831</v>
+        <v>0.210314835464391</v>
       </c>
       <c r="G18" s="1">
-        <v>0.98600715938704875</v>
+        <v>0.98990397135416675</v>
       </c>
       <c r="H18" s="1">
-        <v>1640334</v>
+        <v>733466</v>
       </c>
       <c r="I18" s="1">
-        <v>19667.469000000001</v>
+        <v>4955.424</v>
       </c>
       <c r="J18" s="1">
-        <v>0.98226565150525669</v>
+        <v>0.84384058769195947</v>
       </c>
       <c r="K18" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L18" s="1">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M18" s="1">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N18" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1709633649932156</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>15</v>
@@ -1318,46 +1319,46 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.35378488314237055</v>
+        <v>0.52062442313280499</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4881690579074629</v>
+        <v>0.31648055471775993</v>
       </c>
       <c r="C19" s="1">
-        <v>0.47858476940417188</v>
+        <v>0.79368634102350633</v>
       </c>
       <c r="D19" s="1">
-        <v>2.8206541174439537E-2</v>
+        <v>2.2498301630434779E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.99662606845423973</v>
+        <v>0.99750699408058419</v>
       </c>
       <c r="F19" s="1">
-        <v>0.20358121259677883</v>
+        <v>0.22809015902138838</v>
       </c>
       <c r="G19" s="1">
-        <v>0.98589672941278028</v>
+        <v>0.99006496263586963</v>
       </c>
       <c r="H19" s="1">
-        <v>1242298</v>
+        <v>752162</v>
       </c>
       <c r="I19" s="1">
-        <v>10635.206</v>
+        <v>4895.3740000000007</v>
       </c>
       <c r="J19" s="1">
-        <v>0.96063871587894578</v>
+        <v>0.84462745540000683</v>
       </c>
       <c r="K19" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L19" s="1">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M19" s="1">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N19" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1709633649932156</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>15</v>
@@ -1366,46 +1367,46 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.47441882197792207</v>
+        <v>0.54325107794796523</v>
       </c>
       <c r="B20" s="1">
-        <v>0.35295116376126118</v>
+        <v>0.28111702594717458</v>
       </c>
       <c r="C20" s="1">
-        <v>0.61016404330191154</v>
+        <v>0.73850667784282309</v>
       </c>
       <c r="D20" s="1">
-        <v>3.6545474851158277E-2</v>
+        <v>1.5759171195652177E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.99431933216721335</v>
+        <v>0.99740004514772174</v>
       </c>
       <c r="F20" s="1">
-        <v>0.19577715132695597</v>
+        <v>0.27686641537931334</v>
       </c>
       <c r="G20" s="1">
-        <v>0.98172959970325135</v>
+        <v>0.99299818840579734</v>
       </c>
       <c r="H20" s="1">
-        <v>4889644</v>
+        <v>758247</v>
       </c>
       <c r="I20" s="1">
-        <v>23209.361000000001</v>
+        <v>4978.6289999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.64994406925796755</v>
+        <v>0.83756311855623633</v>
       </c>
       <c r="K20" s="1">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L20" s="1">
-        <v>2448</v>
+        <v>737</v>
       </c>
       <c r="M20" s="1">
-        <v>4080</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N20" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1709633649932156</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>15</v>
@@ -1414,46 +1415,46 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.446845051537682</v>
+        <v>0.24334567011325128</v>
       </c>
       <c r="B21" s="1">
-        <v>0.39290861934013122</v>
+        <v>0.34531523645887274</v>
       </c>
       <c r="C21" s="1">
-        <v>0.57810298253558778</v>
+        <v>0.63259131728292672</v>
       </c>
       <c r="D21" s="1">
-        <v>3.5734032068078549E-2</v>
+        <v>6.9247795115332411E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.99520605629541625</v>
+        <v>0.98490109419250915</v>
       </c>
       <c r="F21" s="1">
-        <v>0.18066379713332009</v>
+        <v>0.30507258830527428</v>
       </c>
       <c r="G21" s="1">
-        <v>0.98213415253037617</v>
+        <v>0.96690630653550413</v>
       </c>
       <c r="H21" s="1">
-        <v>1978617</v>
+        <v>153676</v>
       </c>
       <c r="I21" s="1">
-        <v>11472.311</v>
+        <v>3182.0909999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.95502889427161231</v>
+        <v>0.89834549359210059</v>
       </c>
       <c r="K21" s="1">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L21" s="1">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M21" s="1">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N21" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>15</v>
@@ -1462,46 +1463,46 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.43425918735138375</v>
+        <v>0.24022882237526194</v>
       </c>
       <c r="B22" s="1">
-        <v>0.42170815090600561</v>
+        <v>0.34322570594034996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.57772698561512403</v>
+        <v>0.6380222580875714</v>
       </c>
       <c r="D22" s="1">
-        <v>3.4455580863322031E-2</v>
+        <v>7.1683344640434174E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.99574661947924281</v>
+        <v>0.98510434309763728</v>
       </c>
       <c r="F22" s="1">
-        <v>0.17362291940740826</v>
+        <v>0.30336154461134557</v>
       </c>
       <c r="G22" s="1">
-        <v>0.98277220956833888</v>
+        <v>0.96635974954771586</v>
       </c>
       <c r="H22" s="1">
-        <v>1943720</v>
+        <v>200375</v>
       </c>
       <c r="I22" s="1">
-        <v>12807.855999999998</v>
+        <v>5454.5950000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>0.96376335517287026</v>
+        <v>0.88267352297363544</v>
       </c>
       <c r="K22" s="1">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L22" s="1">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M22" s="1">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N22" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>15</v>
@@ -1510,46 +1511,46 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0.41027190284190551</v>
+        <v>0.24653538322753446</v>
       </c>
       <c r="B23" s="1">
-        <v>0.47268691979252381</v>
+        <v>0.31373686829208625</v>
       </c>
       <c r="C23" s="1">
-        <v>0.55113414675999239</v>
+        <v>0.64066615521306469</v>
       </c>
       <c r="D23" s="1">
-        <v>2.9996464257954915E-2</v>
+        <v>6.8895861601085517E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.99641217437148322</v>
+        <v>0.98629687608481242</v>
       </c>
       <c r="F23" s="1">
-        <v>0.1829530555988057</v>
+        <v>0.30979703247861157</v>
       </c>
       <c r="G23" s="1">
-        <v>0.98500193480879628</v>
+        <v>0.96755738353686116</v>
       </c>
       <c r="H23" s="1">
-        <v>1792915</v>
+        <v>222537</v>
       </c>
       <c r="I23" s="1">
-        <v>12840.143</v>
+        <v>5272.2159999999994</v>
       </c>
       <c r="J23" s="1">
-        <v>0.9755072767899442</v>
+        <v>0.90376725237983224</v>
       </c>
       <c r="K23" s="1">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L23" s="1">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M23" s="1">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N23" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>15</v>
@@ -1558,46 +1559,46 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.35952044354340279</v>
+        <v>0.43218131402683524</v>
       </c>
       <c r="B24" s="1">
-        <v>0.58962279341888624</v>
+        <v>0.35565170737981011</v>
       </c>
       <c r="C24" s="1">
-        <v>0.50368979325592655</v>
+        <v>0.72804021866588253</v>
       </c>
       <c r="D24" s="1">
-        <v>3.0353740720645173E-2</v>
+        <v>2.5396031207598372E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.99658181555911596</v>
+        <v>0.99627022994698422</v>
       </c>
       <c r="F24" s="1">
-        <v>0.2206465559269763</v>
+        <v>0.30666611451011339</v>
       </c>
       <c r="G24" s="1">
-        <v>0.98482312963967733</v>
+        <v>0.98768734452736329</v>
       </c>
       <c r="H24" s="1">
-        <v>2102909</v>
+        <v>612723</v>
       </c>
       <c r="I24" s="1">
-        <v>14006.454</v>
+        <v>7762.2049999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.99016612054893671</v>
+        <v>0.89842092248027894</v>
       </c>
       <c r="K24" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L24" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M24" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N24" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>15</v>
@@ -1606,46 +1607,46 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.57642988373150728</v>
+        <v>0.43628417059476926</v>
       </c>
       <c r="B25" s="1">
-        <v>0.31576495565412099</v>
+        <v>0.35098639626224754</v>
       </c>
       <c r="C25" s="1">
-        <v>0.86120052785597789</v>
+        <v>0.72724362014893162</v>
       </c>
       <c r="D25" s="1">
-        <v>1.8206579506802725E-2</v>
+        <v>2.74041723202171E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.99632512412614915</v>
+        <v>0.99602767637198353</v>
       </c>
       <c r="F25" s="1">
-        <v>0.35389158923344927</v>
+        <v>0.29877193827738235</v>
       </c>
       <c r="G25" s="1">
-        <v>0.99145983914399105</v>
+        <v>0.98681238692899131</v>
       </c>
       <c r="H25" s="1">
-        <v>569340</v>
+        <v>620129</v>
       </c>
       <c r="I25" s="1">
-        <v>3691.5250000000001</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.86143793259334211</v>
+        <v>0.88846620191430103</v>
       </c>
       <c r="K25" s="1">
-        <v>1280</v>
+        <v>1600</v>
       </c>
       <c r="L25" s="1">
-        <v>589</v>
+        <v>738</v>
       </c>
       <c r="M25" s="1">
-        <v>1409.0141943926612</v>
+        <v>1762</v>
       </c>
       <c r="N25" s="1">
-        <v>2.1731748726655349</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>15</v>
@@ -1654,46 +1655,46 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.31776342384229672</v>
+        <v>0.43292181497445137</v>
       </c>
       <c r="B26" s="1">
-        <v>0.67204819149812589</v>
+        <v>0.35247429929472368</v>
       </c>
       <c r="C26" s="1">
-        <v>0.44160464825878865</v>
+        <v>0.72577566887592149</v>
       </c>
       <c r="D26" s="1">
-        <v>2.533595272153303E-2</v>
+        <v>2.476170284938942E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.99643340992495144</v>
+        <v>0.99633692629859805</v>
       </c>
       <c r="F26" s="1">
-        <v>0.28494225877549001</v>
+        <v>0.30779827406531157</v>
       </c>
       <c r="G26" s="1">
-        <v>0.98733202363923356</v>
+        <v>0.98803214043419252</v>
       </c>
       <c r="H26" s="1">
-        <v>1020507</v>
+        <v>612705</v>
       </c>
       <c r="I26" s="1">
-        <v>10105.85</v>
+        <v>7372.4859999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.98684668679961429</v>
+        <v>0.90333975568818248</v>
       </c>
       <c r="K26" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L26" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M26" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N26" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>16</v>
@@ -1702,46 +1703,46 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.39546376580266313</v>
+        <v>0.54560859605065615</v>
       </c>
       <c r="B27" s="1">
-        <v>0.5271671282160072</v>
+        <v>0.34782239268018394</v>
       </c>
       <c r="C27" s="1">
-        <v>0.52232656141444966</v>
+        <v>0.75097274323802243</v>
       </c>
       <c r="D27" s="1">
-        <v>3.1768996473228589E-2</v>
+        <v>1.213485054347826E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.99661172915060081</v>
+        <v>0.99774196990284247</v>
       </c>
       <c r="F27" s="1">
-        <v>0.21620029021950371</v>
+        <v>0.23983961679209836</v>
       </c>
       <c r="G27" s="1">
-        <v>0.98411550176338558</v>
+        <v>0.99403560914855071</v>
       </c>
       <c r="H27" s="1">
-        <v>2522279</v>
+        <v>824890</v>
       </c>
       <c r="I27" s="1">
-        <v>13617.876</v>
+        <v>4747.7</v>
       </c>
       <c r="J27" s="1">
-        <v>0.98487021423399113</v>
+        <v>0.84498565287525518</v>
       </c>
       <c r="K27" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L27" s="1">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M27" s="1">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N27" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.1709633649932156</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>15</v>
@@ -1750,46 +1751,46 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.36041074240477189</v>
+        <v>0.2827411773072615</v>
       </c>
       <c r="B28" s="1">
-        <v>0.59871659046997794</v>
+        <v>0.34635141391466928</v>
       </c>
       <c r="C28" s="1">
-        <v>0.49246071601764785</v>
+        <v>0.79732654165905037</v>
       </c>
       <c r="D28" s="1">
-        <v>2.6812325819419443E-2</v>
+        <v>5.6126187245590244E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>0.99694988834337839</v>
+        <v>0.99187303241308811</v>
       </c>
       <c r="F28" s="1">
-        <v>0.23764091184276429</v>
+        <v>0.33037989666170892</v>
       </c>
       <c r="G28" s="1">
-        <v>0.98659383709029014</v>
+        <v>0.97371197987336067</v>
       </c>
       <c r="H28" s="1">
-        <v>1787080</v>
+        <v>655429</v>
       </c>
       <c r="I28" s="1">
-        <v>13656.892</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J28" s="1">
-        <v>0.99104580357146344</v>
+        <v>0.88431494990342452</v>
       </c>
       <c r="K28" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L28" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M28" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N28" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>15</v>
@@ -1798,46 +1799,46 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.35914040585665474</v>
+        <v>0.28730251915910288</v>
       </c>
       <c r="B29" s="1">
-        <v>0.59976657580998471</v>
+        <v>0.35199291239696306</v>
       </c>
       <c r="C29" s="1">
-        <v>0.49371894215258844</v>
+        <v>0.7938613967258541</v>
       </c>
       <c r="D29" s="1">
-        <v>2.5685932374774959E-2</v>
+        <v>5.7087856173677079E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.99700559545600054</v>
+        <v>0.99169616088504364</v>
       </c>
       <c r="F29" s="1">
-        <v>0.24371707440133844</v>
+        <v>0.31561446278258931</v>
       </c>
       <c r="G29" s="1">
-        <v>0.98715703381261222</v>
+        <v>0.97328188602442323</v>
       </c>
       <c r="H29" s="1">
-        <v>1885954</v>
+        <v>648274</v>
       </c>
       <c r="I29" s="1">
-        <v>13785.536000000002</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J29" s="1">
-        <v>0.99018675660024646</v>
+        <v>0.88348457290528104</v>
       </c>
       <c r="K29" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L29" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M29" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N29" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>15</v>
@@ -1846,46 +1847,46 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.35557522397435243</v>
+        <v>0.28633044314055722</v>
       </c>
       <c r="B30" s="1">
-        <v>0.61414456794665273</v>
+        <v>0.31925875544346366</v>
       </c>
       <c r="C30" s="1">
-        <v>0.48372574218406561</v>
+        <v>0.80354152385813493</v>
       </c>
       <c r="D30" s="1">
-        <v>2.5274372949909977E-2</v>
+        <v>5.246099050203528E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.99685118099903958</v>
+        <v>0.99220174215910639</v>
       </c>
       <c r="F30" s="1">
-        <v>0.24952215708508185</v>
+        <v>0.33473319939184437</v>
       </c>
       <c r="G30" s="1">
-        <v>0.98736281352504507</v>
+        <v>0.97546443916779735</v>
       </c>
       <c r="H30" s="1">
-        <v>2483661</v>
+        <v>674301</v>
       </c>
       <c r="I30" s="1">
-        <v>13908.253000000001</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J30" s="1">
-        <v>0.98525858239980746</v>
+        <v>0.88286158543848436</v>
       </c>
       <c r="K30" s="1">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L30" s="1">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M30" s="1">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N30" s="1">
-        <v>1.3333333333333333</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>15</v>
@@ -1894,46 +1895,46 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.46546711137066488</v>
+        <v>0.20128145029932648</v>
       </c>
       <c r="B31" s="1">
-        <v>0.36612050313232875</v>
+        <v>0.43296121934144804</v>
       </c>
       <c r="C31" s="1">
-        <v>0.56872016224755728</v>
+        <v>0.708826066739494</v>
       </c>
       <c r="D31" s="1">
-        <v>2.7413723687452304E-2</v>
+        <v>5.4903324287652641E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.99651993734301836</v>
+        <v>0.98827787090231611</v>
       </c>
       <c r="F31" s="1">
-        <v>0.19813935152051587</v>
+        <v>0.33643814391935334</v>
       </c>
       <c r="G31" s="1">
-        <v>0.98629998190579382</v>
+        <v>0.97409203980099501</v>
       </c>
       <c r="H31" s="1">
-        <v>7</v>
+        <v>335692</v>
       </c>
       <c r="I31" s="1">
-        <v>6.1859999999999991</v>
+        <v>7916.2669999999998</v>
       </c>
       <c r="J31" s="1">
-        <v>0.77948376295395716</v>
+        <v>0.87669715284055438</v>
       </c>
       <c r="K31" s="1">
-        <v>2448</v>
+        <v>1600</v>
       </c>
       <c r="L31" s="1">
-        <v>3264</v>
+        <v>738</v>
       </c>
       <c r="M31" s="1">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N31" s="1">
-        <v>0.75</v>
+        <v>2.168021680216802</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>15</v>
